--- a/yield_prediction/results/graph_descriptors/WLsigmoidarctangent_4/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidarctangent_4/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.068</v>
+        <v>0.507</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25.965</v>
+        <v>17.023</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.042</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>29.306</v>
+        <v>11.49</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.07099999999999999</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.563</v>
+        <v>8.406000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8.004787640157161</v>
+        <v>10.58090089103189</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>23.56762118028795</v>
+        <v>18.92302146153868</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>28.30030506534994</v>
+        <v>21.78657441323057</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3.621704594239642</v>
+        <v>-2.305668894019476</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>19.90357728703007</v>
+        <v>23.24706292053254</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>25.08577991092215</v>
+        <v>25.33565747107982</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>12.83584879292245</v>
+        <v>2.116541323374509</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>28.34788737305972</v>
+        <v>36.27927797913816</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>33.11165893353528</v>
+        <v>36.72402698681805</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>28.75229737065201</v>
+        <v>37.88915164645658</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>36.77406899929592</v>
+        <v>41.95983698215967</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>40.159422294351</v>
+        <v>45.61765756243183</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>13.63875352843868</v>
+        <v>16.55165846525232</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>32.01124051667925</v>
+        <v>36.66165875156298</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>38.4954434971412</v>
+        <v>44.06375112378546</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>10.99036356343097</v>
+        <v>18.14361653453244</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>26.79369230937806</v>
+        <v>39.70133432734234</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>31.52681182401415</v>
+        <v>44.95430574981538</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6.112589683867757</v>
+        <v>7.193521914680659</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>22.60607862747685</v>
+        <v>35.56902814667858</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>27.76525697426749</v>
+        <v>42.5460557452322</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>15.43126070924411</v>
+        <v>11.68011343505103</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>31.20459197584298</v>
+        <v>54.06187690607783</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>35.97302810384816</v>
+        <v>63.49440327296238</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>31.29861590825351</v>
+        <v>58.3215012718877</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>39.71914945098627</v>
+        <v>68.02713942225674</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>43.18381470609386</v>
+        <v>74.3811729919469</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>16.10905438580414</v>
+        <v>24.64985410415498</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>35.09239223744726</v>
+        <v>65.85615187123479</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>41.41143608004458</v>
+        <v>73.87490431581168</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>17.12048337360459</v>
+        <v>24.3406145526197</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>33.62740715297865</v>
+        <v>48.67696055708637</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>38.71738755035493</v>
+        <v>53.78589971040876</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>12.74760616828258</v>
+        <v>12.1934566267835</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>30.12369804203007</v>
+        <v>48.12137770638066</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>35.68486124209652</v>
+        <v>53.80533846831634</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>23.27014899481032</v>
+        <v>18.46413723428341</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>39.72648277989725</v>
+        <v>69.60086919118378</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>44.85273409494319</v>
+        <v>79.59253911900402</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>40.55015736870557</v>
+        <v>85.94310424296398</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>49.10065703442488</v>
+        <v>93.09603045111845</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>53.02772793921436</v>
+        <v>100.7863305473241</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>23.67681304821278</v>
+        <v>38.98824291875788</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>43.68899302549404</v>
+        <v>86.95804535920314</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>50.4471352160249</v>
+        <v>94.72401192196901</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>10.32061609405125</v>
+        <v>12.49340038202804</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>26.29673264478412</v>
+        <v>39.84679417973501</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>30.97480915461619</v>
+        <v>44.19335556242603</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6.729044570534811</v>
+        <v>5.331258616591121</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>23.42478491611315</v>
+        <v>46.80984484042355</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>28.54077398233872</v>
+        <v>49.67095605353061</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>16.02222121988806</v>
+        <v>9.738183475979572</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>31.95839130008477</v>
+        <v>68.60183197933719</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>36.67235484440552</v>
+        <v>69.24115575284144</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>32.18861565093992</v>
+        <v>63.94022737386098</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>40.27784189421563</v>
+        <v>70.35338183713844</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>43.46801829326901</v>
+        <v>74.46079501489731</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>16.10005576010365</v>
+        <v>23.79017957459645</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>35.07652779845087</v>
+        <v>65.16783261451693</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>41.51984709664012</v>
+        <v>70.90916647552847</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>12.18659964775191</v>
+        <v>10.96579240597027</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>28.34136247016658</v>
+        <v>42.64735924099526</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>33.00731058031432</v>
+        <v>47.35999510370266</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>8.027125606057137</v>
+        <v>4.945895711837473</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>24.86644790038856</v>
+        <v>41.82456048039248</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>29.94332711840741</v>
+        <v>48.47978586693289</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>17.39008011529967</v>
+        <v>7.360671065463862</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>33.52519502200425</v>
+        <v>64.76198061105546</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>38.23181400274497</v>
+        <v>72.11136413824646</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>33.50116492689737</v>
+        <v>64.75946087894297</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>41.97558455018397</v>
+        <v>76.19034450614227</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>45.23676595287273</v>
+        <v>79.57715921522821</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>17.47421593175273</v>
+        <v>21.48685495519537</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>36.98173429860886</v>
+        <v>75.39463082677412</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>43.2392842340694</v>
+        <v>80.06576685185777</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>18.15816728737206</v>
+        <v>14.53330084702728</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>35.06921850396293</v>
+        <v>49.98973070744211</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>40.07335463788831</v>
+        <v>55.92921415249809</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>14.54871377234915</v>
+        <v>5.998550395313799</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>32.33476543002708</v>
+        <v>51.2453850569375</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>37.78890972542146</v>
+        <v>58.10397508353547</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>25.08334909324978</v>
+        <v>10.25369562842262</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>41.95492113808933</v>
+        <v>77.2133284299216</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>46.99847007837454</v>
+        <v>86.56062607948249</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>42.66449302864773</v>
+        <v>87.92640521191286</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>51.26349683000124</v>
+        <v>99.95807635143264</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>54.96634570123425</v>
+        <v>104.3694161066888</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>24.88234862513501</v>
+        <v>30.91752589874016</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>45.50662535186876</v>
+        <v>93.63613553636651</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>52.19880076158327</v>
+        <v>100.0735322827465</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>9.926759537832233</v>
+        <v>21.05271867755753</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>25.82375402246624</v>
+        <v>40.73422229074708</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>30.47025481096559</v>
+        <v>42.78514508534079</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>6.122384784926069</v>
+        <v>7.152874461414484</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>22.74711174357788</v>
+        <v>44.2196719716359</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>27.81960703739168</v>
+        <v>44.77821646314741</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>15.45257692232774</v>
+        <v>14.60404047132395</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>31.30648921511996</v>
+        <v>66.74195813830218</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>35.98836713574093</v>
+        <v>65.02225997395311</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>31.67504336330886</v>
+        <v>63.52141453632105</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>39.69862172931197</v>
+        <v>70.19991568569557</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>42.87589387013479</v>
+        <v>72.1066851763803</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>15.80139848453401</v>
+        <v>30.90524474067479</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>34.56353849915571</v>
+        <v>62.73664474282174</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>40.99147653802551</v>
+        <v>67.1221900288498</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>12.11366406270162</v>
+        <v>22.86369091146736</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>28.19619801397688</v>
+        <v>49.65527049895185</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>32.83139765442878</v>
+        <v>52.00729013969492</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>7.739962693751625</v>
+        <v>9.222887421413851</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>24.51575451457024</v>
+        <v>45.55707266177831</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>29.54998385268162</v>
+        <v>49.68735127357826</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>17.16406519204989</v>
+        <v>15.38498466606697</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>33.22416027949632</v>
+        <v>69.92698982309926</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>37.89950740944826</v>
+        <v>74.46696581978279</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>33.31299771281705</v>
+        <v>69.7953563892932</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>41.72010612212897</v>
+        <v>78.84766663064289</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>44.97338741467446</v>
+        <v>80.48786341654139</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>17.49404803847117</v>
+        <v>30.57309220067469</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>36.78829275786164</v>
+        <v>76.70128380164627</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>43.0327666693711</v>
+        <v>80.68521232562165</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>18.16271926569105</v>
+        <v>24.18651273525355</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>35.00629285392996</v>
+        <v>55.27407981676471</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>39.96728187613053</v>
+        <v>58.16925845097654</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>14.36121283328365</v>
+        <v>9.132682937482691</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>32.08996594242672</v>
+        <v>54.98113662471273</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>37.48735646105642</v>
+        <v>58.05594314314557</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>24.94489128370126</v>
+        <v>16.53411346456162</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>41.74539401650043</v>
+        <v>81.25617904508573</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>46.74495730721125</v>
+        <v>86.97073576805653</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>42.55259778309498</v>
+        <v>92.97015839136836</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>51.08669681251402</v>
+        <v>102.1581682260619</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>54.77678563290928</v>
+        <v>104.5280194164235</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>24.96276042935604</v>
+        <v>40.15102988760613</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>45.3885941736967</v>
+        <v>95.32200290004673</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>52.05017630421018</v>
+        <v>99.79052850015164</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>9.95448344653143</v>
+        <v>14.84172548352306</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>25.17763451458964</v>
+        <v>22.20202436232997</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>29.77157167834612</v>
+        <v>24.85186811629094</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>5.62708686954621</v>
+        <v>1.404100108412241</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>21.54777782315778</v>
+        <v>25.41973703155358</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>26.57379743043381</v>
+        <v>28.07383740094566</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>14.83682877795217</v>
+        <v>6.005225355179739</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>30.01027213624567</v>
+        <v>37.33169858833642</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>34.63175648768039</v>
+        <v>37.83943987233172</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>30.19100205418385</v>
+        <v>39.41788237689268</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>38.06669483588171</v>
+        <v>42.55962159754624</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>41.371743736855</v>
+        <v>48.3190916718509</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>15.48407717540103</v>
+        <v>29.65390459742535</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>33.38481766471062</v>
+        <v>47.49674680137637</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>39.70789688885779</v>
+        <v>53.27532082846427</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>12.79605830377193</v>
+        <v>19.39322005332847</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>28.25083314527182</v>
+        <v>38.58112733044672</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>32.84528028034055</v>
+        <v>43.58732198947614</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>7.968601993564604</v>
+        <v>9.677133816705496</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>24.09132323773055</v>
+        <v>35.53346695717863</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>29.09555268430515</v>
+        <v>43.12131847605179</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>17.27721865852197</v>
+        <v>12.44033375910953</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>32.702737201944</v>
+        <v>50.46808139358766</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>37.32869125202448</v>
+        <v>59.83598027299864</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>32.58088983521282</v>
+        <v>52.93154122813284</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>40.8497854757692</v>
+        <v>61.79525271016188</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>44.23604506752204</v>
+        <v>69.62273584841385</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>17.80223103533089</v>
+        <v>28.33353525287782</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>36.29743495944474</v>
+        <v>66.29703653858982</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>42.46184843837496</v>
+        <v>71.74828266873322</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>18.8704857141021</v>
+        <v>27.51324340270762</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>35.03910058812838</v>
+        <v>49.4174520821655</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>39.98286283216459</v>
+        <v>54.14869469987823</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>14.52956578324788</v>
+        <v>15.0527361544362</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>31.54659060748358</v>
+        <v>48.57018947308782</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>36.94239992649331</v>
+        <v>54.56951523692594</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>25.02457640965201</v>
+        <v>20.44898073491524</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>41.14394180547968</v>
+        <v>67.31433770256308</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>46.12023346195576</v>
+        <v>77.38237835944402</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>41.72778453792749</v>
+        <v>79.87954331128179</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>50.13697154678341</v>
+        <v>86.77296220834506</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>53.96721407536123</v>
+        <v>95.79405336533425</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>25.26402037725967</v>
+        <v>43.82360654826998</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>44.79947478474544</v>
+        <v>88.14601611552506</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>51.38688774377644</v>
+        <v>93.62994065461366</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>12.29751128013768</v>
+        <v>22.41118788804146</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>28.12265465584185</v>
+        <v>40.26018772750826</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>32.68375317250413</v>
+        <v>41.03725174980295</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>8.078793771776699</v>
+        <v>7.737560653149323</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>24.6520297026077</v>
+        <v>43.97757912418241</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>29.64390927106158</v>
+        <v>45.00213407162931</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>17.67924925721616</v>
+        <v>15.75751704166556</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>33.46017268323619</v>
+        <v>63.73907870790838</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>38.046323237244</v>
+        <v>61.62455334229432</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>33.37620023527143</v>
+        <v>56.17742144091781</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>41.50588477686543</v>
+        <v>62.45783350397921</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>44.80472505969611</v>
+        <v>64.11810460896284</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>17.90588903007124</v>
+        <v>30.62779502301537</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>36.50476785423683</v>
+        <v>54.33851912494937</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>42.8218821220928</v>
+        <v>58.58880393969164</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>15.47268999876161</v>
+        <v>29.25315302240456</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>31.5262738652883</v>
+        <v>56.10292310501383</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>36.07797335891925</v>
+        <v>56.97271513142854</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>10.74790169632709</v>
+        <v>16.56711213556328</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>27.52110511848086</v>
+        <v>52.22442699338146</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>32.47946196870473</v>
+        <v>56.25313041830916</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>20.46976879871007</v>
+        <v>23.91005573557803</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>36.49908795739348</v>
+        <v>75.72532140424589</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>41.07982021401764</v>
+        <v>80.1717109342281</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>36.09355997412433</v>
+        <v>76.61231309146771</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>44.61761816281999</v>
+        <v>86.5569116818275</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>47.99517929120731</v>
+        <v>89.84535556374718</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>20.58591967959862</v>
+        <v>44.00792022222511</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>39.78228924575407</v>
+        <v>86.35511169009453</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>20.98387400820589</v>
+        <v>30.67817828900009</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>37.72528486701462</v>
+        <v>59.93618697734136</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>42.63823766528716</v>
+        <v>62.00708288738751</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>16.74013478991091</v>
+        <v>15.82229417942703</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>34.38018452358439</v>
+        <v>58.26508243050993</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>39.74200196084449</v>
+        <v>61.84291841135305</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>27.61085921499416</v>
+        <v>23.65773373946514</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>44.30759026402619</v>
+        <v>83.62243998038612</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>49.25079990395199</v>
+        <v>90.28854875315989</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>44.66740183925479</v>
+        <v>94.74011525894204</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>53.32424472747124</v>
+        <v>103.4431516555581</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>57.15123084564104</v>
+        <v>107.9421233362002</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>27.4932756339553</v>
+        <v>49.4996118171063</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>47.70619985867624</v>
+        <v>98.6060366795723</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>54.28938320462096</v>
+        <v>102.6048276708481</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>36.6614600905189</v>
+        <v>16.5003343310807</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>51.78471893997066</v>
+        <v>39.75629425093675</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>55.77849379099314</v>
+        <v>41.87076777345917</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>34.04099758886095</v>
+        <v>6.365765653287589</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>49.88993048349955</v>
+        <v>46.18083787605886</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>54.26710140280782</v>
+        <v>47.97022101957474</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>44.51784388454679</v>
+        <v>10.79334422567824</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>59.61084236802351</v>
+        <v>68.01734857053459</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>63.62312366129879</v>
+        <v>65.60677388766447</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>57.20715867254717</v>
+        <v>53.41821914754099</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>64.87172618203556</v>
+        <v>61.47084832514111</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>67.71846326307103</v>
+        <v>63.33767455915884</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>41.46251130976714</v>
+        <v>19.5900439888719</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>59.26448472171063</v>
+        <v>47.78406860020021</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>64.90270803614386</v>
+        <v>49.78387965328628</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>39.09002330270587</v>
+        <v>24.18913437033082</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>54.39739639579959</v>
+        <v>56.568634391263</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>58.37528802343286</v>
+        <v>58.06923888085971</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>35.93459121161085</v>
+        <v>9.766581364197016</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>51.94001376105267</v>
+        <v>50.65887610249722</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>56.27696014319329</v>
+        <v>55.40810416621964</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>46.52057711153925</v>
+        <v>16.00164386932972</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>61.81533169236336</v>
+        <v>77.79840611229292</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>65.81578334916232</v>
+        <v>80.63813984172367</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>59.12908379906285</v>
+        <v>72.66736224679154</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>67.15960826998327</v>
+        <v>83.66498510799524</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>70.07444997194396</v>
+        <v>86.78967894255474</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>43.45748069820594</v>
+        <v>33.87017728608291</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>61.78618389288675</v>
+        <v>84.42318922320229</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>67.25904098055767</v>
+        <v>85.76933407022062</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>43.46142199880319</v>
+        <v>25.34160115624099</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>59.38967130310205</v>
+        <v>59.43696477853744</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>63.69173102826727</v>
+        <v>62.82580185833599</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>40.7674782377873</v>
+        <v>8.133673384333697</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>57.55577209896231</v>
+        <v>54.31573184091221</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>62.25155662606866</v>
+        <v>59.95648791206996</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>52.33115341300169</v>
+        <v>14.84237384702161</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>68.22862755040916</v>
+        <v>83.27811049379547</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>72.55395787882426</v>
+        <v>88.96428822674875</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>66.33445859944703</v>
+        <v>89.97535303681735</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>74.46535105939829</v>
+        <v>100.2545536387462</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>77.76940040698021</v>
+        <v>102.6751173090151</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>49.1145331297076</v>
+        <v>37.52864078869611</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>68.38256859604</v>
+        <v>94.65459203901906</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>74.24908464627578</v>
+        <v>96.70177288928433</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>24.31743565176229</v>
+        <v>5.399830777590431</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>38.58085721803705</v>
+        <v>11.60687120568003</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>43.0107944892107</v>
+        <v>13.29435451344482</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>21.12295218118206</v>
+        <v>-4.105599574279516</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>36.05010075804007</v>
+        <v>18.12110329485421</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>40.89807028966163</v>
+        <v>18.00570593779106</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>30.53504250859157</v>
+        <v>-2.92388564634679</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>44.74504147707749</v>
+        <v>27.49892502125362</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>49.21194525585359</v>
+        <v>26.3259218633375</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>43.84603439304679</v>
+        <v>31.78880635805741</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>51.13767880747085</v>
+        <v>36.99436247421528</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>54.19958482705833</v>
+        <v>38.43267418130147</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>29.36770045589514</v>
+        <v>11.0672878300068</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>46.24683896366096</v>
+        <v>28.43129726173643</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>52.31256829133204</v>
+        <v>31.53651717751104</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>26.45555859977255</v>
+        <v>13.54337754410444</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>40.93129361564552</v>
+        <v>34.07624945170075</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>45.37625034879879</v>
+        <v>39.90616855747911</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>22.75261382026427</v>
+        <v>5.646689096883801</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>37.86270649867728</v>
+        <v>33.36175540136062</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>42.7045518635959</v>
+        <v>40.84347919998798</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>32.24750479541808</v>
+        <v>7.666138534493179</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>46.68944454992514</v>
+        <v>49.67498457791715</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>51.17610244393066</v>
+        <v>57.99955971199576</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>45.52779354595617</v>
+        <v>52.14960269362846</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>53.19182772201978</v>
+        <v>61.07732757319583</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>56.3258941193379</v>
+        <v>64.55965988832634</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>31.01809781868679</v>
+        <v>19.0685664648905</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>48.45423234573788</v>
+        <v>58.58953408894728</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>54.37115010561497</v>
+        <v>64.31417891867964</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>32.59084046440815</v>
+        <v>18.85329994893961</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>47.74603038357412</v>
+        <v>43.19549450868142</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>52.48083214573219</v>
+        <v>48.4843479916057</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>29.4386952178604</v>
+        <v>9.521512056363482</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>45.39420146124482</v>
+        <v>46.39293817059544</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>50.56375592595155</v>
+        <v>51.5627556841738</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>40.05758568118722</v>
+        <v>15.02470756668844</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>55.16030991693269</v>
+        <v>66.74721702458714</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>59.93648711912243</v>
+        <v>74.70376413795992</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>54.66300042465453</v>
+        <v>81.78391294224315</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>62.42308477052212</v>
+        <v>90.03532391691812</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>65.97378091245075</v>
+        <v>92.89165306976909</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>38.54402485410108</v>
+        <v>36.59523178277014</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>56.97140132898349</v>
+        <v>84.02026228471703</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>63.2655643997978</v>
+        <v>89.50673249131547</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>25.78491605934306</v>
+        <v>3.151070934272614</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>40.92681551740779</v>
+        <v>8.419299802069638</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>45.38771812030672</v>
+        <v>11.52312177519542</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>22.03719851433705</v>
+        <v>-7.034968253414121</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>37.88792976503869</v>
+        <v>13.28483195550886</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>42.76700426258579</v>
+        <v>16.48833808734565</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>31.95266219209875</v>
+        <v>-7.154893833854914</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>47.05273523213056</v>
+        <v>23.66066624235377</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>51.53812860145115</v>
+        <v>24.08757010922604</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>45.79492941334628</v>
+        <v>24.50106868875567</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>53.57533946387946</v>
+        <v>28.64762014288204</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>56.84524445569834</v>
+        <v>32.79866954406716</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>30.65354136073341</v>
+        <v>6.585175740060912</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>48.41858352976941</v>
+        <v>21.52111791986031</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>54.58455936350963</v>
+        <v>24.86087095766311</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>28.39807266720066</v>
+        <v>0.1212423920818253</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>43.75630653901806</v>
+        <v>12.76087955576356</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>48.20793773955242</v>
+        <v>17.52659922070987</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>24.15803860266984</v>
+        <v>-5.213270807348977</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>40.19666870885213</v>
+        <v>13.65749912299341</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>45.04275863898089</v>
+        <v>20.23725316297509</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>34.16202068147274</v>
+        <v>-7.198573578715617</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>49.49790215535266</v>
+        <v>25.74058922819412</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>53.97783742442775</v>
+        <v>34.23408387721138</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>47.97144200215361</v>
+        <v>31.0753133496435</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>56.12816686063577</v>
+        <v>40.48542086130938</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>59.47646567187303</v>
+        <v>48.14975620598401</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>32.79440261845797</v>
+        <v>5.079714515125271</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>51.12663611318646</v>
+        <v>36.7102967784095</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>57.1309299614441</v>
+        <v>39.36962496249746</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>33.39442195194579</v>
+        <v>5.664616477835764</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>49.42366459448459</v>
+        <v>21.65161032619699</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>54.22829910386812</v>
+        <v>30.27661987813495</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>29.60326323349977</v>
+        <v>-1.346261853399426</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>46.48635363132605</v>
+        <v>25.1570186084903</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>51.72689804945949</v>
+        <v>34.40303187934659</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>40.70055406887285</v>
+        <v>-1.337158002371403</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>56.68789263801378</v>
+        <v>40.77036944336346</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>61.52179791984003</v>
+        <v>54.08531716672877</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>55.90963125713991</v>
+        <v>56.619752024021</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>64.20672477027611</v>
+        <v>65.36261973559053</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>67.99323615117437</v>
+        <v>76.05376895797153</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>39.12495576185836</v>
+        <v>16.94766355618412</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>58.44345231660611</v>
+        <v>55.97612168275548</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>64.87160631270176</v>
+        <v>61.2030537842236</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>31.34247389818345</v>
+        <v>15.58091551694855</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>46.89409096264522</v>
+        <v>37.91984014636284</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>51.29134338586665</v>
+        <v>43.77135629298839</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>28.97087539199038</v>
+        <v>8.290269725186846</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>45.30203107142371</v>
+        <v>51.94524576834535</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>50.1117023326361</v>
+        <v>54.22815568542549</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>39.2396055919489</v>
+        <v>15.70258385288059</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>54.74589253757659</v>
+        <v>73.25392392527257</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>59.17280434306508</v>
+        <v>73.32266177164843</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>53.26212598800933</v>
+        <v>67.97124997383148</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>61.03056712197696</v>
+        <v>74.2171745007513</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>64.03195618821232</v>
+        <v>76.06726371430074</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>37.41200422157834</v>
+        <v>35.95689908260751</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>55.71499216437012</v>
+        <v>66.97807406803265</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>61.92698426813737</v>
+        <v>76.1282589331457</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>32.41912245315311</v>
+        <v>12.29459588966826</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>48.12951955848261</v>
+        <v>39.58714297337171</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>52.50156368842249</v>
+        <v>43.17188993954424</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>29.43035402407345</v>
+        <v>1.048981568394503</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>45.88552069020245</v>
+        <v>38.86583879765755</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>50.64147384411423</v>
+        <v>42.91592558918301</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>39.71719634684393</v>
+        <v>6.098942710375418</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>55.40145484707907</v>
+        <v>62.83962054587306</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>59.80812353748431</v>
+        <v>66.82862778602042</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>53.72505810356557</v>
+        <v>60.46196069713768</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>61.85019950022925</v>
+        <v>68.70609061330632</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>64.92096231047495</v>
+        <v>70.55133311064142</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>37.96143223729938</v>
+        <v>25.13785286565475</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>56.77390828639945</v>
+        <v>71.04564202113578</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>62.78218331647257</v>
+        <v>73.90288409554744</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>37.61737836818634</v>
+        <v>15.94869933222738</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>53.99908273394047</v>
+        <v>46.68949703429585</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>58.69011601721947</v>
+        <v>51.97368672000852</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>35.19640304770699</v>
+        <v>5.918986194443519</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>52.48873532247761</v>
+        <v>51.16389617251184</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>57.60568949045937</v>
+        <v>55.50526512430183</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>46.54793756163606</v>
+        <v>11.45954310611611</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>62.88510295347724</v>
+        <v>77.25030450935503</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>67.60952192607751</v>
+        <v>83.74191995975255</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>61.97166290322103</v>
+        <v>86.67822539557166</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>70.19642274296478</v>
+        <v>94.95410416732457</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>73.68747257243768</v>
+        <v>96.01396727991357</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>44.56181138593534</v>
+        <v>35.84709035390338</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>64.38105593051601</v>
+        <v>90.6638564642418</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>70.78506513377796</v>
+        <v>95.60572464050991</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>12.75657448759408</v>
+        <v>5.471963530744283</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>26.77755567081148</v>
+        <v>10.48340564282597</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>31.27485509263611</v>
+        <v>13.79686450656145</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>9.04259206536253</v>
+        <v>-3.159149350564846</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>23.61551104548049</v>
+        <v>13.49463424349019</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>28.53930376166454</v>
+        <v>15.45710903670049</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>17.52880525305952</v>
+        <v>-1.459632548031124</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>31.51052599876757</v>
+        <v>24.00227923786618</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>36.04568935178409</v>
+        <v>24.97462002090394</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>31.42959330582644</v>
+        <v>25.85528440568774</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>38.64162880979536</v>
+        <v>30.08733876455456</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>41.77122728891158</v>
+        <v>34.11099969090725</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>17.03461608636015</v>
+        <v>5.162820984292161</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>33.86218780526978</v>
+        <v>23.77555910664997</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>39.88190385504019</v>
+        <v>26.78589248375857</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>14.99265511125511</v>
+        <v>8.339702391957541</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>29.23303690796455</v>
+        <v>24.75093399072423</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>33.73934499532754</v>
+        <v>32.07498229775802</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>10.84335370141537</v>
+        <v>3.692355965102983</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>25.60929778787049</v>
+        <v>24.25695784730496</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>30.51962645456446</v>
+        <v>32.83784995283046</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>19.41999206087145</v>
+        <v>4.809421544070169</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>33.64099429247209</v>
+        <v>37.90520680585458</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>38.18952116321881</v>
+        <v>48.28987196349821</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>33.28374293858919</v>
+        <v>38.39775426813467</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>40.8651162267208</v>
+        <v>47.916664330982</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>44.06218212183958</v>
+        <v>52.49241736306133</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>18.85438478624747</v>
+        <v>9.605815714511017</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>36.22001328956628</v>
+        <v>43.59419592364053</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>42.09903444490993</v>
+        <v>50.60585686096862</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>20.58694195121082</v>
+        <v>17.86431236140773</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>35.52552036885871</v>
+        <v>37.57250366142047</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>40.34974724222289</v>
+        <v>44.68790992619661</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>16.89021271721333</v>
+        <v>10.30240035713415</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>32.53525642101695</v>
+        <v>39.11259604426522</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>37.79933744508959</v>
+        <v>46.19915755184926</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>26.5713042634534</v>
+        <v>14.9784264075314</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>41.47039082427331</v>
+        <v>56.91449827173236</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>46.33640496894662</v>
+        <v>67.53098487481014</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>41.78606489480359</v>
+        <v>67.73884381335068</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>49.4845333319462</v>
+        <v>76.29231493968993</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>53.10612164117995</v>
+        <v>85.02819458542032</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>25.78076249148117</v>
+        <v>29.2882031913261</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>44.16794014224084</v>
+        <v>69.92114428514415</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>50.46844878009968</v>
+        <v>78.33541196793577</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>15.37015077812223</v>
+        <v>-1.608244211742708</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>30.59825903601522</v>
+        <v>10.68186314803278</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>34.92695140076144</v>
+        <v>11.45966558647558</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>11.50971859654553</v>
+        <v>-14.1585750636672</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>27.41053504208238</v>
+        <v>11.71510257955371</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>32.1370389043938</v>
+        <v>12.13721714618264</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>20.82742743468524</v>
+        <v>-13.44605205851191</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>36.02254464811006</v>
+        <v>27.96853934761916</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>40.38073947034073</v>
+        <v>25.8047666401761</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>35.60306845597437</v>
+        <v>24.7748143421571</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>43.35415580231465</v>
+        <v>29.51622172831607</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>46.37198436543048</v>
+        <v>31.36307089359136</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>20.14604564492879</v>
+        <v>-0.165623864960093</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>38.11356754255091</v>
+        <v>22.54682425272756</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>44.07657338078521</v>
+        <v>23.55542325341924</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>18.29373607119897</v>
+        <v>17.00687894478723</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>33.7165391507957</v>
+        <v>39.64061742160462</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>38.03954236065384</v>
+        <v>41.40214365052346</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>13.92907312629984</v>
+        <v>5.947700740608916</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>29.99477014384764</v>
+        <v>36.409006110611</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>34.69168517563023</v>
+        <v>40.5901622258127</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>23.39613281263518</v>
+        <v>8.021334236503126</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>38.80518347136285</v>
+        <v>56.22058348767315</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>43.16177644890959</v>
+        <v>60.73660016461666</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>38.06417561198089</v>
+        <v>57.73574534661051</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>46.19400159192396</v>
+        <v>66.09962081276385</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>49.2852276632206</v>
+        <v>67.68410804499626</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>22.64937998720974</v>
+        <v>23.27048752244817</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>41.1406949771707</v>
+        <v>64.64958178546232</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>46.94759107387759</v>
+        <v>67.34586067410889</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>23.65196385692093</v>
+        <v>22.75176199638053</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>39.80082480917442</v>
+        <v>49.79898075010946</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>44.44462267369261</v>
+        <v>52.63915382128268</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>19.77890903064716</v>
+        <v>7.934792604088543</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>36.75895446894064</v>
+        <v>48.03830878345535</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>41.80841122613505</v>
+        <v>51.79530438208039</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>30.3230777825006</v>
+        <v>11.89270356155674</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>46.43810622083937</v>
+        <v>70.2808352315474</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>51.11493230947491</v>
+        <v>76.24374755472989</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>46.40518984264465</v>
+        <v>82.05902301224312</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>54.66654218239901</v>
+        <v>91.17937495729734</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>58.16450875309373</v>
+        <v>93.99158538270555</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>29.31023510836665</v>
+        <v>34.57020443407595</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>48.88279184635847</v>
+        <v>85.30546515601543</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>55.09692462183764</v>
+        <v>87.83739075213575</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>1.545236770575748</v>
+        <v>8.248780354630757</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>16.06241965544415</v>
+        <v>13.27340026078121</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>20.57461769446131</v>
+        <v>16.68442933254104</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>-2.678261801036147</v>
+        <v>-3.417926804707626</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>12.45040476375841</v>
+        <v>14.98751480236586</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>17.3747870334165</v>
+        <v>17.23228716372867</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>5.693675975897193</v>
+        <v>-1.114668284542383</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>20.16343406911885</v>
+        <v>27.48229046628099</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>24.71450692346179</v>
+        <v>28.80430395235641</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>21.14320374811611</v>
+        <v>28.76966085132131</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>28.5894432772159</v>
+        <v>32.1492047904616</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>31.65162789415513</v>
+        <v>35.07042386267297</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>6.714520385335728</v>
+        <v>13.13905678057818</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>23.8515044643081</v>
+        <v>27.70894881413334</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>30.00605087940719</v>
+        <v>30.69985103042963</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>3.419271135976798</v>
+        <v>2.877498659150941</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>18.12124818997682</v>
+        <v>13.82761644669008</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>22.64308931509377</v>
+        <v>20.55402274383156</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>-1.319281030118296</v>
+        <v>-3.59289507231604</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>13.95987840086906</v>
+        <v>12.89621185138636</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>18.87166823118309</v>
+        <v>21.29568377357493</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>7.12798639170229</v>
+        <v>-3.497472781947398</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>21.80285618666922</v>
+        <v>26.35451107834773</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>26.36807187487895</v>
+        <v>36.62203785087176</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>22.53322304481264</v>
+        <v>29.39129189053489</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>30.35878704429618</v>
+        <v>34.1155814845086</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>33.494700220722</v>
+        <v>37.47764439380585</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>8.137478356816796</v>
+        <v>5.635880452720755</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>25.79404816866704</v>
+        <v>33.09438429009428</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>31.7943638913148</v>
+        <v>37.72184657429138</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>10.39134834990937</v>
+        <v>16.59689275342637</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>25.87763812981094</v>
+        <v>33.07759405500049</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>30.70203201015208</v>
+        <v>38.56232086720395</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>6.200115892048021</v>
+        <v>3.197621466465215</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>22.44935824191153</v>
+        <v>30.37098286498796</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>27.69739427367317</v>
+        <v>36.24136926287649</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>15.84686413950884</v>
+        <v>9.380964098429086</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>31.28743144102839</v>
+        <v>51.04497981463338</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>36.15430255665412</v>
+        <v>60.5106640086081</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>32.61344242765861</v>
+        <v>62.46854831846183</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>40.57166478518342</v>
+        <v>68.27472103922543</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>44.12439796196577</v>
+        <v>70.85373866138745</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>16.45114578353566</v>
+        <v>26.43359525376989</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>35.25566639166979</v>
+        <v>63.2588939065706</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>41.64932593885131</v>
+        <v>66.89922692546105</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>3.40933320281952</v>
+        <v>1.852288332543278</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>17.06308931546579</v>
+        <v>2.751499106559546</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>21.29945456832889</v>
+        <v>3.030507990191758</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>-0.6757999221274495</v>
+        <v>-7.153637951807795</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>13.52688292189879</v>
+        <v>4.020321791640207</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>18.14792138331346</v>
+        <v>4.130389399123811</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>7.327609160777627</v>
+        <v>-9.274156898644421</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>20.93931413634891</v>
+        <v>11.27067941358635</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>25.20902468841861</v>
+        <v>9.822377498962513</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>21.58647711286397</v>
+        <v>11.48412498536967</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>28.65453971726641</v>
+        <v>11.65854867345303</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>31.58408124025263</v>
+        <v>14.99536593802533</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>8.02510313315409</v>
+        <v>2.465201112584861</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>24.1144464934477</v>
+        <v>11.51210459980436</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>29.89062383722054</v>
+        <v>11.70315333473654</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>5.546889577099424</v>
+        <v>-1.489050855445349</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>19.38587311109906</v>
+        <v>5.829637415420539</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>23.63428716924471</v>
+        <v>8.122916919394317</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>0.9846625962593052</v>
+        <v>-5.752784114537025</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>15.34086103393028</v>
+        <v>5.642129432506241</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>19.95441796285363</v>
+        <v>9.930068330667275</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>9.084815230126061</v>
+        <v>-9.408815126247475</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>22.90101559486857</v>
+        <v>13.56202675485486</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>27.18670132742242</v>
+        <v>19.06123224389075</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>23.28657556118653</v>
+        <v>14.18202864526811</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>30.71914142930726</v>
+        <v>17.53295276283197</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>33.72170155143198</v>
+        <v>19.34046612432197</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>9.733412536962252</v>
+        <v>-2.108976339989809</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>26.3236276919493</v>
+        <v>18.68239717104667</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>31.96511741841366</v>
+        <v>19.70573885900258</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>12.15505545153852</v>
+        <v>15.33675376990563</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>26.759792796257</v>
+        <v>27.43897998770871</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>31.30051353282174</v>
+        <v>29.64036356719934</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>8.081981752840445</v>
+        <v>2.356269461818911</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>23.38810875077064</v>
+        <v>23.86705871226857</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>28.32466939281004</v>
+        <v>27.50194602422561</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>17.32440434841977</v>
+        <v>5.004752265243361</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>31.88866641184365</v>
+        <v>38.86552764343228</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>36.46574970418735</v>
+        <v>44.67056818237845</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>32.82482867584027</v>
+        <v>47.98102145013867</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>40.39883696085444</v>
+        <v>51.54492474123295</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>43.79175575179514</v>
+        <v>54.11509015400537</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>17.58408308814627</v>
+        <v>20.34450155475921</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>35.28556390833194</v>
+        <v>49.28115513068755</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>41.30443903369526</v>
+        <v>50.94622540605147</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>26.61457474726536</v>
+        <v>21.77891647834575</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>41.60734063708631</v>
+        <v>31.57122226801514</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>46.20946736693479</v>
+        <v>35.24575461649015</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>22.68116333345299</v>
+        <v>6.242875075389467</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>38.35999187116967</v>
+        <v>32.20574210203516</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>43.39799927272985</v>
+        <v>35.01648637798399</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>32.66523727546533</v>
+        <v>12.16263355845763</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>47.60835460025923</v>
+        <v>48.05867042826387</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>52.24150088195334</v>
+        <v>48.87986166946285</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>46.49385761015569</v>
+        <v>50.58209016381275</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>54.22232839519324</v>
+        <v>53.93174533942098</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>57.46643450251342</v>
+        <v>56.99039618285246</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>31.51640449193235</v>
+        <v>32.20404856224293</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>49.19179266170214</v>
+        <v>53.15228151337329</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>55.49372718677945</v>
+        <v>59.34877890147521</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>28.77156775804786</v>
+        <v>12.46288908186706</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>43.98300601851807</v>
+        <v>30.06413315921456</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>48.57947462483391</v>
+        <v>34.05559968666706</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>24.35720883158275</v>
+        <v>-0.5084550422476752</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>40.22547091997521</v>
+        <v>22.90495271380644</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>45.23435074014951</v>
+        <v>28.48523744609911</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>34.39222425260563</v>
+        <v>2.664730591077657</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>49.57423932505702</v>
+        <v>40.57269015464367</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>54.20555398938937</v>
+        <v>47.96304151877994</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>48.2242687124365</v>
+        <v>44.41238161219638</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>56.33034498144731</v>
+        <v>50.77146811603467</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>59.65071197953009</v>
+        <v>54.18322857131339</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>33.19931220805462</v>
+        <v>19.05331282799185</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>51.44195271594535</v>
+        <v>54.37159075452902</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>57.57938287623378</v>
+        <v>58.51518013365685</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>34.34816665063229</v>
+        <v>23.79647484157159</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>50.25269162508008</v>
+        <v>45.02316604411612</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>55.19766832601344</v>
+        <v>49.91933544894648</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>30.4020666358988</v>
+        <v>8.981457718247867</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>47.13633556090834</v>
+        <v>41.00653009190618</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>52.53820988621747</v>
+        <v>45.94793692452819</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>41.57929019919196</v>
+        <v>15.18187533626412</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>57.43498459782512</v>
+        <v>62.98280470154688</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>62.41584897169045</v>
+        <v>72.00030308817239</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>56.80692563027374</v>
+        <v>78.08382431316136</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>65.04718631469757</v>
+        <v>83.29529691814412</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>68.81413587412219</v>
+        <v>87.64651669947901</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>40.13362339067511</v>
+        <v>36.36110462077939</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>59.38973890525088</v>
+        <v>78.64385713802307</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>65.9486356291256</v>
+        <v>84.58916729274434</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>11.41195362880086</v>
+        <v>19.09278245456502</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>26.46987782309494</v>
+        <v>39.51250094093177</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>31.06372414648155</v>
+        <v>43.97074403645936</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>7.660708560570935</v>
+        <v>8.887077721649725</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>23.36157401214795</v>
+        <v>43.72023219777505</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>28.37547502087666</v>
+        <v>46.48369713163385</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>16.59069524754568</v>
+        <v>15.26326225492769</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>31.6068944520672</v>
+        <v>63.25622077339171</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>36.23959847706655</v>
+        <v>65.37899006639961</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>31.75665077563833</v>
+        <v>64.31933033379799</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>39.42629132876517</v>
+        <v>68.95726531685004</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>42.57777475348482</v>
+        <v>72.41144555757069</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>16.47597287009642</v>
+        <v>27.38531320560791</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>34.41093937521079</v>
+        <v>61.91556015886467</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>40.66027704943838</v>
+        <v>70.03385592579738</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>13.25036095487033</v>
+        <v>12.34481095813189</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>28.49585354036864</v>
+        <v>37.2012593768282</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>33.08513785658624</v>
+        <v>42.60234480330802</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>8.991678140337093</v>
+        <v>4.820843194561128</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>24.8462728463545</v>
+        <v>35.94458568341049</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>29.83109646421603</v>
+        <v>42.51978004815457</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>17.98936463155048</v>
+        <v>6.560207682882183</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>33.21367088348977</v>
+        <v>53.92556898712645</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>37.84606547061799</v>
+        <v>62.78431437240241</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>33.12196305073708</v>
+        <v>56.40701035743641</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>41.16349186159327</v>
+        <v>65.3901506869194</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>44.38321400604333</v>
+        <v>66.83153851090124</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>17.87207004019661</v>
+        <v>17.23502750927965</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>36.32316383752725</v>
+        <v>62.01454828688133</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>42.4064834073359</v>
+        <v>69.9335154465542</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>18.88711470177312</v>
+        <v>16.17514892025062</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>34.88094304135242</v>
+        <v>44.61657842576645</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>39.79740096146203</v>
+        <v>51.09735341561264</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>15.11848746781478</v>
+        <v>6.645347106956748</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>31.91368956063769</v>
+        <v>46.38537072734937</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>37.26089910608401</v>
+        <v>52.70209195895684</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>25.24965141988724</v>
+        <v>10.54986349519965</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>41.20201757489258</v>
+        <v>66.93374697576084</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>46.16081078930362</v>
+        <v>77.75542505767845</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>41.81159987202454</v>
+        <v>79.44331313486273</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>49.9913908925144</v>
+        <v>89.51500352523233</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>53.6415320895167</v>
+        <v>94.95846324844577</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>24.87431205923886</v>
+        <v>28.61108279247479</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>44.42638326794629</v>
+        <v>81.05698287378164</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>50.9355817852848</v>
+        <v>91.59799399285177</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>4.405269954666274</v>
+        <v>16.77304318808885</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>20.94010544379933</v>
+        <v>34.34371357145641</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>25.76285776007857</v>
+        <v>39.089185150272</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>0.1951657911416262</v>
+        <v>6.907276297943142</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>17.51890731142197</v>
+        <v>43.75974137372653</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>22.79930562370359</v>
+        <v>46.97889167020361</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>9.677654420462968</v>
+        <v>12.6954191830924</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>26.16312575698881</v>
+        <v>61.63189553415521</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>31.01550874487841</v>
+        <v>62.60612738049372</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>26.94873126546215</v>
+        <v>59.13731918057643</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>35.39696445730755</v>
+        <v>63.57127969801195</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>38.82027817370204</v>
+        <v>67.17322005340543</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>10.95471425286053</v>
+        <v>29.81850474606936</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>30.47200147129412</v>
+        <v>58.65315387466146</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>37.1592949527674</v>
+        <v>68.43753658237003</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>7.134066500097699</v>
+        <v>15.62667093976141</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>23.89141947170656</v>
+        <v>42.04214078425525</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>28.70067450577382</v>
+        <v>45.99803566152318</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>2.363246699170622</v>
+        <v>4.859567864952403</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>19.87737929640501</v>
+        <v>39.41215564125944</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>25.11751194679721</v>
+        <v>44.78009090246105</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>11.93630350289856</v>
+        <v>8.949560192138243</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>28.66535136398752</v>
+        <v>60.51374744742958</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>33.50879475557993</v>
+        <v>67.64123998296259</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>29.14434565843431</v>
+        <v>62.46764457427975</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>37.99672470939942</v>
+        <v>71.74674747851105</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>41.49999835516321</v>
+        <v>76.92807016935799</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>13.1271103965104</v>
+        <v>25.48305117033866</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>33.25145007449215</v>
+        <v>72.28702764189966</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>39.74796466056934</v>
+        <v>78.47982413105854</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>13.37418821836659</v>
+        <v>18.65989370567442</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>30.85337103237196</v>
+        <v>47.78301599258425</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>36.03377431096042</v>
+        <v>52.65666400498811</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>9.151143026724068</v>
+        <v>8.056208397579081</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>27.57084445678644</v>
+        <v>49.48046712781063</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>33.22878437126957</v>
+        <v>54.76045982811398</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>19.95145240718502</v>
+        <v>12.4563933994916</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>37.38141189060187</v>
+        <v>72.67685144415961</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>42.5965925563312</v>
+        <v>81.66856638137389</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>38.63523746032317</v>
+        <v>87.13007896221075</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>47.61628415230835</v>
+        <v>94.77052645762087</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>51.5930861388681</v>
+        <v>101.0151956558465</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>20.85835071342038</v>
+        <v>35.14519627942173</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>42.05045661122128</v>
+        <v>89.59212579078047</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>48.99851244170452</v>
+        <v>96.54564411763005</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>-46.3975114162525</v>
+        <v>23.56517545260578</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>-27.99156266722167</v>
+        <v>35.63964262164736</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>-22.60086438583751</v>
+        <v>39.15913520630106</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>-52.44767598690123</v>
+        <v>20.0635530864295</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>-33.18426816995512</v>
+        <v>51.55031516368446</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>-27.29292296375804</v>
+        <v>54.38936070278417</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>-44.44289021704815</v>
+        <v>21.11005929998498</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>-26.10100160435146</v>
+        <v>61.32812340716333</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>-20.67233605329314</v>
+        <v>62.22796253869727</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>-20.71901284982737</v>
+        <v>59.80751292424187</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>-11.21177409109102</v>
+        <v>64.46451602686989</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>-7.363276536728924</v>
+        <v>67.85274398437986</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>-37.36450364653838</v>
+        <v>38.82934211007512</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>-15.54148460238023</v>
+        <v>58.56112918854637</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>-8.102444915302517</v>
+        <v>67.47160351206982</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>-42.17498635985082</v>
+        <v>20.89250805813349</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>-23.5037697699015</v>
+        <v>41.90273852688095</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>-18.11711612250131</v>
+        <v>45.92363272492906</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>-48.84057647399727</v>
+        <v>23.24554247699567</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>-29.34732767190496</v>
+        <v>51.78900357108299</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>-23.48646950158831</v>
+        <v>57.8238834885798</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>-40.65333650909698</v>
+        <v>17.31093904287926</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>-22.02217693674864</v>
+        <v>60.6470703859916</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>-16.59246873068395</v>
+        <v>68.73769211886513</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>-17.10448957742605</v>
+        <v>62.60557938555649</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>-7.13046654119194</v>
+        <v>71.8105990320667</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>-3.195469145444966</v>
+        <v>77.3311652036451</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>-33.79386673607254</v>
+        <v>33.33056777511614</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>-11.2676919140441</v>
+        <v>70.82950836100694</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>-4.036357394649726</v>
+        <v>77.5633312687189</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>-33.04229830359036</v>
+        <v>24.40695764622571</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>-13.52372390037879</v>
+        <v>47.65092545444568</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>-7.732145108143325</v>
+        <v>52.07081644558306</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>-39.00510236653153</v>
+        <v>25.88586384660128</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>-18.45160729218245</v>
+        <v>61.03291710956663</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>-12.13985012063732</v>
+        <v>66.01371858594571</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>-29.31242459506404</v>
+        <v>21.35793919257474</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>-9.857711958135841</v>
+        <v>72.57797350795639</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>-4.021861815461643</v>
+        <v>82.15351299449745</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>-4.193161898235883</v>
+        <v>86.85031671919033</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>5.918038101705456</v>
+        <v>94.29436885716777</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>10.40035775726393</v>
+        <v>101.4515805468371</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>-22.95854489225399</v>
+        <v>43.63916203307014</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>0.8221958122925415</v>
+        <v>87.72784082540051</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>8.554424958076684</v>
+        <v>95.16157280229905</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>1.227049580734093</v>
+        <v>16.27813525112875</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>17.45981363890618</v>
+        <v>35.4444782880144</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>22.31170165250944</v>
+        <v>40.98526951229935</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>-3.1383552922301</v>
+        <v>5.79783045799357</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>13.80379599511384</v>
+        <v>40.1233611448057</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>19.11155004820182</v>
+        <v>43.51932477403363</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>5.955448339765427</v>
+        <v>11.65996339962747</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>22.14654341872801</v>
+        <v>60.47256777400797</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>27.03333991289188</v>
+        <v>62.98178337538653</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>23.23184092045004</v>
+        <v>63.86928230562675</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>31.49248616831507</v>
+        <v>68.77911365656915</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>34.88479775316046</v>
+        <v>70.70099288468103</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>7.137344510544764</v>
+        <v>22.53587844675839</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>26.43909559775189</v>
+        <v>58.40582349807684</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>33.08175597898202</v>
+        <v>65.96315076324609</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>3.83521868213036</v>
+        <v>12.26862903306409</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>20.27911564917577</v>
+        <v>37.75517472118068</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>25.12076029117032</v>
+        <v>41.61345988123233</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>-1.065021184364754</v>
+        <v>3.197602460425593</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>16.05692025657019</v>
+        <v>35.66876456635681</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>21.3265403414122</v>
+        <v>40.25805590616853</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>8.13134700489196</v>
+        <v>5.323458679978671</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>24.55487554566094</v>
+        <v>54.60803227990437</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>29.43608967315487</v>
+        <v>61.43768883831078</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>25.32613577096892</v>
+        <v>57.71356288210332</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>33.98249588491696</v>
+        <v>66.13188395667621</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>37.45361664295763</v>
+        <v>66.7735362996567</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>9.249659124557329</v>
+        <v>14.86661972532991</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>29.11372137471986</v>
+        <v>61.64734963297286</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>35.58028222402956</v>
+        <v>68.1390711510177</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>9.931450381237127</v>
+        <v>16.03346059595801</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>27.13648946505082</v>
+        <v>44.23245681883191</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>32.33364691466431</v>
+        <v>49.89261832873377</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>5.573784482028113</v>
+        <v>6.146431251201257</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>23.65151112378728</v>
+        <v>45.69054093562509</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>29.31659289306967</v>
+        <v>50.52514612900205</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>15.95910812637499</v>
+        <v>8.776982788899197</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>33.12202962507186</v>
+        <v>66.44829417479316</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>38.35844703329886</v>
+        <v>75.82201699304713</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>34.65768128133645</v>
+        <v>82.91066420509759</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>43.45127814358013</v>
+        <v>91.27030980148467</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>47.38185295571513</v>
+        <v>95.39949286323909</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>16.79519542404528</v>
+        <v>27.67036355591769</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>37.79948211472296</v>
+        <v>81.52246789111874</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>44.71061937250664</v>
+        <v>90.56920342785166</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>5.067804728690234</v>
+        <v>11.77827692498773</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>19.93139394667786</v>
+        <v>17.93243475598018</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>24.44238044120386</v>
+        <v>20.64941838197451</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>0.822473444169308</v>
+        <v>-0.9245991841836769</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>16.35430311909521</v>
+        <v>21.99087809438664</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>21.29364117976506</v>
+        <v>23.0517227853321</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>9.449852034997662</v>
+        <v>3.06379740568412</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>24.2680143410277</v>
+        <v>32.13660386783326</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>28.80832357904348</v>
+        <v>34.09342012795332</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>24.77963238838716</v>
+        <v>34.93413088924761</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>32.43970535758268</v>
+        <v>38.24488496851879</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>35.65779849663606</v>
+        <v>41.62803560492229</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>10.25036632919053</v>
+        <v>15.46372047130185</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>27.80011281865901</v>
+        <v>31.68801450014828</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>33.98931935289242</v>
+        <v>34.62708965336228</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>7.88853120226543</v>
+        <v>12.8724390404866</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>22.98258743242454</v>
+        <v>32.28622206498947</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>27.50662955491769</v>
+        <v>38.91562677489418</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>3.177626171446251</v>
+        <v>6.006579772099588</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>18.91106854422597</v>
+        <v>32.70063780534321</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>23.84287628044585</v>
+        <v>40.02616821132791</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>11.91121333372755</v>
+        <v>8.639614572563868</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>26.98011253876154</v>
+        <v>46.64532749297474</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>31.53729226538897</v>
+        <v>58.27411599034708</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>27.19912910298001</v>
+        <v>50.78105769851226</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>35.24595100115883</v>
+        <v>58.52464738062487</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>38.54094573065277</v>
+        <v>64.78945153427915</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>12.61272897022633</v>
+        <v>17.86021088018963</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>30.74762013238261</v>
+        <v>55.72487339133684</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>36.79847458271261</v>
+        <v>63.16325013578894</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>13.99730556316284</v>
+        <v>20.90553770311379</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>29.77480822339131</v>
+        <v>42.23888647917147</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>34.64273255640822</v>
+        <v>48.98513461989558</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>9.769539079877742</v>
+        <v>11.50204782505404</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>26.35893891581366</v>
+        <v>45.26582404589799</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>31.67597525238262</v>
+        <v>51.04433131941387</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>19.65540941993227</v>
+        <v>16.01741987956571</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>35.38847269999641</v>
+        <v>61.22769625410162</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>40.29077602275679</v>
+        <v>73.5986473183265</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>36.28246772023337</v>
+        <v>75.18393239223737</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>44.44071938878325</v>
+        <v>80.61316356459302</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>48.18402801800516</v>
+        <v>88.92867181940206</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>20.05491282289508</v>
+        <v>31.39649423975414</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>39.18993075643881</v>
+        <v>75.07694683615172</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>45.67294228248717</v>
+        <v>82.63669787252826</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>-47.38634673855883</v>
+        <v>10.10699195293041</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>-29.0721032236321</v>
+        <v>19.22248311536524</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>-23.65922129032954</v>
+        <v>23.61842449071672</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>-53.46004702410127</v>
+        <v>1.457498378407756</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>-34.29658155251671</v>
+        <v>28.54111027050945</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>-28.38080153062745</v>
+        <v>32.74165215714809</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>-45.56322001129452</v>
+        <v>4.198397178931621</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>-27.31392889086116</v>
+        <v>39.69228185213186</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>-21.86182858188119</v>
+        <v>41.97735174060265</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>-21.82579656005627</v>
+        <v>42.11896640192828</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>-12.3611453097203</v>
+        <v>46.69706615247465</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>-8.501127752951453</v>
+        <v>50.94732437641277</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>-38.36344707493014</v>
+        <v>21.66614597678709</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>-16.63591426633064</v>
+        <v>39.99068895212129</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>-9.183417957880478</v>
+        <v>49.36885088042169</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>-43.18989999972585</v>
+        <v>8.736178756132745</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>-24.60934866682757</v>
+        <v>27.35763585744741</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>-19.19825791974059</v>
+        <v>33.89701928133014</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>-49.87421145283813</v>
+        <v>6.234347918615939</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>-30.47962495342695</v>
+        <v>31.15440636307829</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>-24.59188480859396</v>
+        <v>40.31795545615981</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>-41.79841919753321</v>
+        <v>3.097922665829355</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>-23.25880014731593</v>
+        <v>42.29938743963712</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>-17.80334750456235</v>
+        <v>53.44761046787105</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>-18.23365690298139</v>
+        <v>47.39155239110271</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>-8.30268302695195</v>
+        <v>56.47893712186328</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>-4.356180730875245</v>
+        <v>63.7392677006429</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>-34.82228277825097</v>
+        <v>17.724389562287</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>-12.39118828141442</v>
+        <v>53.69255858401873</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>-5.144332974437022</v>
+        <v>62.6948927946621</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>-33.9538420975604</v>
+        <v>12.27593732724461</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>-14.52331939756431</v>
+        <v>32.9821493160559</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>-8.709178663977557</v>
+        <v>39.66652877424762</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>-39.9302870419547</v>
+        <v>7.921160197862065</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>-19.4730177314806</v>
+        <v>39.39700258643657</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>-13.13587049616791</v>
+        <v>47.16903501362231</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>-30.33970780996191</v>
+        <v>6.386124061519503</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>-10.97392189133798</v>
+        <v>53.34084016284595</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>-5.114297679023498</v>
+        <v>65.74737925909554</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>-5.210844498768008</v>
+        <v>70.56846061096554</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>4.856863607423316</v>
+        <v>77.39069397969845</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>9.35284377292874</v>
+        <v>86.42720354986207</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>-23.87410484863381</v>
+        <v>27.33000369236904</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>-0.1875115089557315</v>
+        <v>69.40715662325221</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>7.560195685812708</v>
+        <v>79.23981652783817</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>16.75269514245162</v>
+        <v>20.86052518460296</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>31.87869830842795</v>
+        <v>36.8137365806104</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>36.38468693485768</v>
+        <v>41.07965469302482</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>13.10418493683763</v>
+        <v>9.223008091601521</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>28.9808905086524</v>
+        <v>48.73903827443279</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>33.89626165325775</v>
+        <v>49.73220071537284</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>22.68882732797859</v>
+        <v>16.93801178971643</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>37.75465052300233</v>
+        <v>64.43212000629202</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>42.29376820234027</v>
+        <v>64.49331263072585</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>37.44758367214622</v>
+        <v>61.22137034384074</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>45.16479712388971</v>
+        <v>66.91742284053009</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>48.30246721567492</v>
+        <v>69.11397992334808</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>22.58036264045383</v>
+        <v>40.4186290923504</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>40.33600093732763</v>
+        <v>61.72504833810198</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>46.64288410970271</v>
+        <v>71.64202067019677</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>18.65726921607167</v>
+        <v>18.86846068520618</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>33.98559857584178</v>
+        <v>42.32782115504203</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>38.47777648923983</v>
+        <v>45.07769083581346</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>14.44625051336507</v>
+        <v>6.730165799801831</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>30.48976572218522</v>
+        <v>41.43554673710828</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>35.36766422383189</v>
+        <v>44.41171583055657</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>24.10780483329777</v>
+        <v>10.40737624181921</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>39.39671456500993</v>
+        <v>60.21193973986129</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>43.92626158214212</v>
+        <v>64.9635319625218</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>38.85911318365262</v>
+        <v>60.95547813687396</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>46.9515760463929</v>
+        <v>66.86716087929653</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>50.15755130747169</v>
+        <v>69.61661350857771</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>24.01146982624288</v>
+        <v>31.16191359141673</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>42.32616835617738</v>
+        <v>69.79549325077576</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>48.43990956752469</v>
+        <v>72.80944843078936</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>24.33835440483688</v>
+        <v>20.47622987729307</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>40.35519511012954</v>
+        <v>46.17564734217515</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>45.16448045738022</v>
+        <v>50.0528831545761</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>20.65436884961782</v>
+        <v>8.642106195805813</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>37.55914378153986</v>
+        <v>49.82477808088329</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>42.79029688121631</v>
+        <v>53.0060189072038</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>31.41609308383256</v>
+        <v>14.28673722502959</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>47.37464982346175</v>
+        <v>71.6986831506228</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>52.22199122946203</v>
+        <v>78.61771091413276</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>47.55375564181206</v>
+        <v>84.21689215126875</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>55.76416924571771</v>
+        <v>90.47553873589101</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>59.39474637405341</v>
+        <v>93.2881211293487</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>31.03211821675952</v>
+        <v>40.45975598134937</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>50.37038488090921</v>
+        <v>85.46390802087453</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>56.87465791052907</v>
+        <v>90.12590476517407</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>6.975440854197448</v>
+        <v>16.43564952086108</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>23.09272538236077</v>
+        <v>35.6450705844528</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>27.84603731091818</v>
+        <v>39.99595735928815</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>2.819296800223176</v>
+        <v>6.601903831903257</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>19.6476847027264</v>
+        <v>41.67341048623098</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>24.84345359798829</v>
+        <v>43.9934637361234</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>12.11966177195498</v>
+        <v>10.92884870986977</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>28.19713035982263</v>
+        <v>59.67534398634691</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>32.98336319368723</v>
+        <v>61.2248393731747</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>28.77313738609667</v>
+        <v>62.61099978228122</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>36.97021336354916</v>
+        <v>68.88276168379622</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>40.32642355430593</v>
+        <v>69.96346138356304</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>12.72390511041948</v>
+        <v>21.45739574616094</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>31.88153734073255</v>
+        <v>57.06954617116131</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>38.4012085070302</v>
+        <v>63.78369907867325</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>9.495626737996879</v>
+        <v>12.78398384518563</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>25.82306002500956</v>
+        <v>38.63173739041133</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>30.56459262347584</v>
+        <v>42.55536513420164</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>4.809314132048295</v>
+        <v>4.373592931968851</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>21.81642953836069</v>
+        <v>37.27674662210836</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>26.97218406866414</v>
+        <v>41.95442862339618</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>14.20773958083809</v>
+        <v>6.127782927219901</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>30.5162950621627</v>
+        <v>55.83524754167257</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>35.29532250810851</v>
+        <v>63.12379664691878</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>30.79429518672186</v>
+        <v>59.42355816684083</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>39.38097224043543</v>
+        <v>67.77922203289863</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>42.81596392153551</v>
+        <v>68.90753268790313</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>14.76630927101646</v>
+        <v>15.86521923243398</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>34.48715790863466</v>
+        <v>64.18301383620224</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>40.83078538728999</v>
+        <v>70.37718567092838</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>15.166311912851</v>
+        <v>15.80752678412846</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>32.23057086725727</v>
+        <v>43.92452967395494</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>37.32899969825804</v>
+        <v>49.57460681727616</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>11.00135553806119</v>
+        <v>5.582273060747237</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>28.93769942096467</v>
+        <v>44.93303268527865</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>34.49153895659349</v>
+        <v>49.88750407467422</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>21.55374094233886</v>
+        <v>7.185202805336122</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>38.57736172240459</v>
+        <v>64.68934727290235</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>43.71313421564902</v>
+        <v>74.20073343187158</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>39.62230146062531</v>
+        <v>80.59994097742535</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>48.34705471037319</v>
+        <v>87.94477154272079</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>52.23645165327372</v>
+        <v>93.29122501389431</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>21.85288625667279</v>
+        <v>25.13962756020001</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>42.67167398671707</v>
+        <v>78.68606633634681</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>49.46462453549807</v>
+        <v>87.57832403407605</v>
       </c>
     </row>
   </sheetData>
